--- a/杨松霖实训日志.xlsx
+++ b/杨松霖实训日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17175" windowHeight="12240"/>
+    <workbookView windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="个人日志" sheetId="1" r:id="rId1"/>
@@ -46,19 +46,19 @@
     <t>备注</t>
   </si>
   <si>
-    <t>初步建设首页框架</t>
+    <t>项目计划的初步撰写</t>
   </si>
   <si>
     <t>8:20-12:00</t>
   </si>
   <si>
-    <t>丰富首页内容</t>
+    <t>协助小组人员美化前端外观</t>
   </si>
   <si>
     <t>14:20-18:00</t>
   </si>
   <si>
-    <t>创建部分子页面</t>
+    <t>完成今日的项目日报和个人日志，向其他小组展示本组作品</t>
   </si>
   <si>
     <t>19:00-20：40</t>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
@@ -89,11 +89,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
@@ -101,27 +156,40 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -133,6 +201,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
@@ -142,75 +211,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -230,127 +230,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,6 +451,54 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,17 +517,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="62"/>
       </top>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,30 +542,6 @@
       <top/>
       <bottom style="thick">
         <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,35 +560,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,145 +568,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/杨松霖实训日志.xlsx
+++ b/杨松霖实训日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12195"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="个人日志" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <t>日期</t>
   </si>
   <si>
-    <t>2019.05.16</t>
+    <t>2019.05.20</t>
   </si>
   <si>
     <t>编号</t>
@@ -46,19 +46,19 @@
     <t>备注</t>
   </si>
   <si>
-    <t>项目计划的初步撰写</t>
+    <t>安装配置mysql</t>
   </si>
   <si>
     <t>8:20-12:00</t>
   </si>
   <si>
-    <t>协助小组人员美化前端外观</t>
+    <t>学习使用，代码的了解</t>
   </si>
   <si>
     <t>14:20-18:00</t>
   </si>
   <si>
-    <t>完成今日的项目日报和个人日志，向其他小组展示本组作品</t>
+    <t>库和表的一些增删改查操作</t>
   </si>
   <si>
     <t>19:00-20：40</t>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
@@ -100,21 +100,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -128,17 +188,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -148,71 +207,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="24">
@@ -230,127 +230,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,8 +457,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,24 +495,44 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,43 +555,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <bottom style="medium">
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,7 +571,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J3" sqref="J3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
